--- a/Fase 2/Evidencias del Proyecto/Toma de Requerimientos.xlsx
+++ b/Fase 2/Evidencias del Proyecto/Toma de Requerimientos.xlsx
@@ -25,7 +25,7 @@
     <t>Funcional</t>
   </si>
   <si>
-    <t>Registro de estados de ánimo diario con mínimo 5 emociones predefinidas y posibilidad de agregar emociones personalizadas.</t>
+    <t>Registro de estados de ánimo diario con mínimo 3 emociones predefinidas y posibilidad de agregar emociones personalizadas.</t>
   </si>
   <si>
     <t>Permite al usuario mayor flexibilidad y personalización en el seguimiento de su estado emocional.</t>
@@ -109,7 +109,7 @@
     <t>Incrementa el compromiso y fomenta la constancia del usuario con la aplicación.</t>
   </si>
   <si>
-    <t>Acceso multiplataforma (versión móvil como prioridad, con opción de extensión web).</t>
+    <t>Acceso multiplataforma (versión móvil como prioridad).</t>
   </si>
   <si>
     <t>Asegura que los usuarios puedan usar la app en distintos dispositivos.</t>
